--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\UxGame\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2B990-FCD7-4376-9E19-8C4DC3400C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C93E91-210D-4799-B84D-2E658A89B517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,42 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位标记使用示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +152,38 @@
   </si>
   <si>
     <t>WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,10 +259,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -620,17 +616,17 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -653,15 +649,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -693,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -707,7 +703,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -721,21 +717,21 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -749,54 +745,53 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
       </c>
       <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
